--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cole\Documents\Fall 2018\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E394B0CE-058C-4CF2-A65C-C2A2FEB00E54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B90BFB-2F06-495C-8E57-E090F11561A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4170" xr2:uid="{CAACB808-7CD7-4C72-AD89-1ECCC547C117}"/>
   </bookViews>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C52C06E-316C-4A3E-83A4-1B8BF9A40FF6}">
   <dimension ref="A1:BG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,8 +798,8 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cole\Documents\Fall 2018\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B90BFB-2F06-495C-8E57-E090F11561A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E5A38C-65CF-4A8F-941F-29B349431B7C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4170" xr2:uid="{CAACB808-7CD7-4C72-AD89-1ECCC547C117}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Task</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>CDR Videos</t>
+  </si>
+  <si>
+    <t>9 days</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
   <dimension ref="A1:BG20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,9 +802,9 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -846,29 +849,47 @@
       <c r="B9" s="1">
         <v>43362</v>
       </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="B10" s="1">
+        <v>43362</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43371</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="B11" s="1">
+        <v>43376</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="K11" s="6"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="B12" s="1">
+        <v>43376</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="K12" s="6"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cole\Documents\Fall 2018\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E5A38C-65CF-4A8F-941F-29B349431B7C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97269D4-B2DF-4BBF-9A21-30E5AF2BA50E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4170" xr2:uid="{CAACB808-7CD7-4C72-AD89-1ECCC547C117}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Task</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>9 days</t>
+  </si>
+  <si>
+    <t>Deliver Preliminary design presentation</t>
   </si>
 </sst>
 </file>
@@ -178,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -188,6 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C52C06E-316C-4A3E-83A4-1B8BF9A40FF6}">
-  <dimension ref="A1:BG20"/>
+  <dimension ref="A1:BG21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,18 +818,18 @@
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -906,47 +910,54 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="E16" s="2"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="E17" s="2"/>
-      <c r="R17" s="6"/>
+      <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2"/>
       <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
+      <c r="R19" s="6"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="T20" s="6"/>
+      <c r="E21" s="2"/>
+      <c r="T21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cole\Documents\Fall 2018\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97269D4-B2DF-4BBF-9A21-30E5AF2BA50E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9CF743-4616-419F-A238-3F22BCB4344A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4170" xr2:uid="{CAACB808-7CD7-4C72-AD89-1ECCC547C117}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Task</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Deliver Preliminary design presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 days </t>
+  </si>
+  <si>
+    <t>6 days</t>
   </si>
 </sst>
 </file>
@@ -509,7 +515,7 @@
   <dimension ref="A1:BG21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,8 +814,8 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="6"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -882,8 +888,14 @@
       <c r="B11" s="1">
         <v>43376</v>
       </c>
+      <c r="C11" s="1">
+        <v>43385</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -892,15 +904,24 @@
       <c r="B12" s="1">
         <v>43376</v>
       </c>
+      <c r="C12" s="1">
+        <v>43385</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="B13" s="1">
+        <v>43389</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -913,8 +934,17 @@
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="B15" s="1">
+        <v>43390</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43396</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="M15" s="6"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cole\Documents\Fall 2018\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9CF743-4616-419F-A238-3F22BCB4344A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5985CB0-E446-4951-B5A3-CD442F57A2F1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4170" xr2:uid="{CAACB808-7CD7-4C72-AD89-1ECCC547C117}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15350" windowHeight="4170" xr2:uid="{CAACB808-7CD7-4C72-AD89-1ECCC547C117}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Task</t>
   </si>
@@ -105,9 +105,6 @@
     <t xml:space="preserve">Failure Modes and Effects Analysis </t>
   </si>
   <si>
-    <t>Critical Design Reviews</t>
-  </si>
-  <si>
     <t>Draft Analysis and Manufacturing Plan Appendix </t>
   </si>
   <si>
@@ -127,6 +124,33 @@
   </si>
   <si>
     <t>6 days</t>
+  </si>
+  <si>
+    <t>5 days</t>
+  </si>
+  <si>
+    <t>Finalize CAD Model</t>
+  </si>
+  <si>
+    <t>Choose Electrical Components</t>
+  </si>
+  <si>
+    <t>FEA Analysis</t>
+  </si>
+  <si>
+    <t>Create Drawing Package</t>
+  </si>
+  <si>
+    <t>11 days</t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
+    <t>Present Critical Design Reviews</t>
+  </si>
+  <si>
+    <t>Prepare CDR</t>
   </si>
 </sst>
 </file>
@@ -512,38 +536,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C52C06E-316C-4A3E-83A4-1B8BF9A40FF6}">
-  <dimension ref="A1:BG21"/>
+  <dimension ref="A1:BG26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.6328125" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.81640625" customWidth="1"/>
+    <col min="15" max="15" width="12.7265625" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" customWidth="1"/>
-    <col min="22" max="23" width="10.42578125" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" customWidth="1"/>
+    <col min="18" max="18" width="13.26953125" customWidth="1"/>
+    <col min="19" max="19" width="11.453125" customWidth="1"/>
+    <col min="20" max="20" width="10.7265625" customWidth="1"/>
+    <col min="22" max="23" width="10.453125" customWidth="1"/>
+    <col min="24" max="24" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -557,7 +581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -736,7 +760,7 @@
         <v>43718</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -751,7 +775,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -766,7 +790,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -781,7 +805,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -796,7 +820,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -816,9 +840,9 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -837,7 +861,7 @@
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -852,7 +876,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -864,7 +888,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -875,13 +899,13 @@
         <v>43371</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -892,12 +916,12 @@
         <v>43385</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -908,31 +932,37 @@
         <v>43385</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1">
         <v>43389</v>
       </c>
+      <c r="C13" s="1">
+        <v>43390</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1">
         <v>43390</v>
@@ -941,55 +971,203 @@
         <v>43396</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B16" s="1">
+        <v>43396</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43402</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="B17" s="1">
+        <v>43411</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43412</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="O17" s="9"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43407</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43418</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43407</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43418</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43418</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43425</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43425</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43432</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="O21" s="9"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43432</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43437</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="O22" s="9"/>
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="R18" s="6"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="B23" s="1">
+        <v>43425</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43434</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43436</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43437</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="6"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="R19" s="6"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="B25" s="1">
+        <v>43437</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43443</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="T21" s="6"/>
+      <c r="B26" s="1">
+        <v>43437</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43443</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5985CB0-E446-4951-B5A3-CD442F57A2F1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBF3742-E9D2-4A89-B523-ADE17D4206C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15350" windowHeight="4170" xr2:uid="{CAACB808-7CD7-4C72-AD89-1ECCC547C117}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="42">
   <si>
     <t>Task</t>
   </si>
@@ -538,8 +538,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C52C06E-316C-4A3E-83A4-1B8BF9A40FF6}">
   <dimension ref="A1:BG26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -843,10 +844,10 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
       <c r="T7" s="6"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
@@ -1023,9 +1024,9 @@
         <v>38</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
@@ -1041,9 +1042,9 @@
         <v>38</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
@@ -1061,8 +1062,8 @@
       <c r="E20" s="2"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
@@ -1079,8 +1080,8 @@
       </c>
       <c r="E21" s="2"/>
       <c r="O21" s="9"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
@@ -1097,7 +1098,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="O22" s="9"/>
-      <c r="S22" s="6"/>
+      <c r="S22" s="5"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
@@ -1113,7 +1114,7 @@
         <v>29</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="R23" s="6"/>
+      <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
@@ -1146,8 +1147,8 @@
         <v>32</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBF3742-E9D2-4A89-B523-ADE17D4206C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D1E369-34FB-410C-89E8-9616F1F3EB3F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15350" windowHeight="4170" xr2:uid="{CAACB808-7CD7-4C72-AD89-1ECCC547C117}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Task</t>
   </si>
@@ -151,6 +151,33 @@
   </si>
   <si>
     <t>Prepare CDR</t>
+  </si>
+  <si>
+    <t>Gather Materials</t>
+  </si>
+  <si>
+    <t>Machine Parts</t>
+  </si>
+  <si>
+    <t>Write Vehicle Code</t>
+  </si>
+  <si>
+    <t>Weld Subassemblies</t>
+  </si>
+  <si>
+    <t>Test Robot</t>
+  </si>
+  <si>
+    <t>CompetitionPreperation</t>
+  </si>
+  <si>
+    <t>Write Final Report</t>
+  </si>
+  <si>
+    <t>Assemble Vehicle</t>
+  </si>
+  <si>
+    <t>14 days</t>
   </si>
 </sst>
 </file>
@@ -536,11 +563,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C52C06E-316C-4A3E-83A4-1B8BF9A40FF6}">
-  <dimension ref="A1:BG26"/>
+  <dimension ref="A1:BG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T16" sqref="T16"/>
+      <selection pane="topRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -550,6 +577,7 @@
     <col min="3" max="3" width="11.7265625" customWidth="1"/>
     <col min="4" max="4" width="11.54296875" customWidth="1"/>
     <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.453125" customWidth="1"/>
     <col min="8" max="8" width="15.1796875" customWidth="1"/>
     <col min="9" max="9" width="12.81640625" customWidth="1"/>
@@ -563,9 +591,27 @@
     <col min="17" max="17" width="13.81640625" customWidth="1"/>
     <col min="18" max="18" width="13.26953125" customWidth="1"/>
     <col min="19" max="19" width="11.453125" customWidth="1"/>
-    <col min="20" max="20" width="10.7265625" customWidth="1"/>
-    <col min="22" max="23" width="10.453125" customWidth="1"/>
+    <col min="20" max="20" width="11.54296875" customWidth="1"/>
+    <col min="21" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.453125" customWidth="1"/>
     <col min="24" max="24" width="11.453125" customWidth="1"/>
+    <col min="25" max="27" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
@@ -993,7 +1039,7 @@
       <c r="E16" s="2"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -1010,7 +1056,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
@@ -1028,7 +1074,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
@@ -1046,7 +1092,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>36</v>
       </c>
@@ -1065,7 +1111,7 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
@@ -1083,7 +1129,7 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
@@ -1100,7 +1146,7 @@
       <c r="O22" s="9"/>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>26</v>
       </c>
@@ -1116,7 +1162,7 @@
       <c r="E23" s="2"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>40</v>
       </c>
@@ -1133,7 +1179,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="6"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>27</v>
       </c>
@@ -1150,7 +1196,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1166,6 +1212,74 @@
       <c r="E26" s="2"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43107</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43114</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="X27" s="6"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43114</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43128</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43128</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43135</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D1E369-34FB-410C-89E8-9616F1F3EB3F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBE817F-3085-460C-BC10-F466D7170005}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15350" windowHeight="4170" xr2:uid="{CAACB808-7CD7-4C72-AD89-1ECCC547C117}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -168,9 +174,6 @@
     <t>Test Robot</t>
   </si>
   <si>
-    <t>CompetitionPreperation</t>
-  </si>
-  <si>
     <t>Write Final Report</t>
   </si>
   <si>
@@ -178,6 +181,12 @@
   </si>
   <si>
     <t>14 days</t>
+  </si>
+  <si>
+    <t>Competition Preperation</t>
+  </si>
+  <si>
+    <t>21 days</t>
   </si>
 </sst>
 </file>
@@ -238,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -249,6 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,9 +575,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C52C06E-316C-4A3E-83A4-1B8BF9A40FF6}">
   <dimension ref="A1:BG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I30" sqref="I30"/>
+      <selection pane="topRight" activeCell="AL34" sqref="AL34:AM34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -898,15 +908,24 @@
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
@@ -1039,7 +1058,7 @@
       <c r="E16" s="2"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -1056,7 +1075,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
@@ -1074,7 +1093,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
@@ -1092,7 +1111,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>36</v>
       </c>
@@ -1111,7 +1130,7 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
@@ -1129,7 +1148,7 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
@@ -1146,7 +1165,7 @@
       <c r="O22" s="9"/>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>26</v>
       </c>
@@ -1162,7 +1181,7 @@
       <c r="E23" s="2"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>40</v>
       </c>
@@ -1179,7 +1198,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="6"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>27</v>
       </c>
@@ -1196,7 +1215,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1213,7 +1232,7 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>42</v>
       </c>
@@ -1228,7 +1247,7 @@
       </c>
       <c r="X27" s="6"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>43</v>
       </c>
@@ -1239,15 +1258,29 @@
         <v>43128</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B29" s="1">
+        <v>43135</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43156</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>45</v>
       </c>
@@ -1260,26 +1293,69 @@
       <c r="D30" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="AA30" s="6"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43135</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43142</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB31" s="6"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32" s="1">
+        <v>43142</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43156</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43212</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43219</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM33" s="6"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="B34" s="1">
+        <v>43146</v>
+      </c>
+      <c r="C34" s="10">
+        <v>47150</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5985CB0-E446-4951-B5A3-CD442F57A2F1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15350" windowHeight="4170" xr2:uid="{CAACB808-7CD7-4C72-AD89-1ECCC547C117}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -151,12 +156,42 @@
   </si>
   <si>
     <t>Prepare CDR</t>
+  </si>
+  <si>
+    <t>Gather Materials</t>
+  </si>
+  <si>
+    <t>Machine Parts</t>
+  </si>
+  <si>
+    <t>Write Vehicle Code</t>
+  </si>
+  <si>
+    <t>Weld Subassemblies</t>
+  </si>
+  <si>
+    <t>Test Robot</t>
+  </si>
+  <si>
+    <t>Write Final Report</t>
+  </si>
+  <si>
+    <t>Assemble Vehicle</t>
+  </si>
+  <si>
+    <t>14 days</t>
+  </si>
+  <si>
+    <t>Competition Preperation</t>
+  </si>
+  <si>
+    <t>21 days</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -222,6 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,39 +571,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C52C06E-316C-4A3E-83A4-1B8BF9A40FF6}">
-  <dimension ref="A1:BG26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL34" sqref="AL34:AM34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6328125" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="14.81640625" customWidth="1"/>
-    <col min="15" max="15" width="12.7265625" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="13.81640625" customWidth="1"/>
-    <col min="18" max="18" width="13.26953125" customWidth="1"/>
-    <col min="19" max="19" width="11.453125" customWidth="1"/>
-    <col min="20" max="20" width="10.7265625" customWidth="1"/>
-    <col min="22" max="23" width="10.453125" customWidth="1"/>
-    <col min="24" max="24" width="11.453125" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="21" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" customWidth="1"/>
+    <col min="25" max="27" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -581,7 +637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -760,7 +816,7 @@
         <v>43718</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -775,7 +831,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -790,7 +846,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -805,7 +861,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -820,7 +876,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -843,25 +899,34 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
       <c r="T7" s="6"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -876,7 +941,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -888,7 +953,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -905,7 +970,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -921,7 +986,7 @@
       <c r="E11" s="2"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -937,7 +1002,7 @@
       <c r="E12" s="2"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -953,14 +1018,14 @@
       <c r="E13" s="2"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="2"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
@@ -976,7 +1041,7 @@
       <c r="E15" s="2"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
@@ -992,7 +1057,7 @@
       <c r="E16" s="2"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -1009,7 +1074,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
@@ -1023,11 +1088,11 @@
         <v>38</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
@@ -1041,11 +1106,11 @@
         <v>38</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>36</v>
       </c>
@@ -1061,10 +1126,10 @@
       <c r="E20" s="2"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
@@ -1079,10 +1144,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="O21" s="9"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
@@ -1097,9 +1162,9 @@
       </c>
       <c r="E22" s="2"/>
       <c r="O22" s="9"/>
-      <c r="S22" s="6"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>26</v>
       </c>
@@ -1113,9 +1178,9 @@
         <v>29</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="R23" s="6"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>40</v>
       </c>
@@ -1132,7 +1197,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="6"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>27</v>
       </c>
@@ -1146,10 +1211,10 @@
         <v>32</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1165,6 +1230,131 @@
       <c r="E26" s="2"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43107</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43114</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="X27" s="6"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43114</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43128</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43135</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43156</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43128</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43135</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA30" s="6"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43135</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43142</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB31" s="6"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43142</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43156</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43212</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43219</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM33" s="6"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43146</v>
+      </c>
+      <c r="C34" s="10">
+        <v>47150</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cole\Documents\Fall 2018\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DD101C-431B-4841-809E-52BC99A08AE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -191,8 +186,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +198,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -258,6 +260,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,44 +574,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL34" sqref="AL34:AM34"/>
+      <selection pane="topRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
-    <col min="21" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.42578125" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" customWidth="1"/>
-    <col min="25" max="27" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="11" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="25" max="27" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="29" max="31" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="34" max="35" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="38" max="40" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -953,7 +957,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -970,7 +974,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -986,7 +990,7 @@
       <c r="E11" s="2"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1002,7 +1006,7 @@
       <c r="E12" s="2"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1018,14 +1022,14 @@
       <c r="E13" s="2"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="2"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
@@ -1041,7 +1045,7 @@
       <c r="E15" s="2"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
@@ -1057,7 +1061,7 @@
       <c r="E16" s="2"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -1074,7 +1078,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
@@ -1092,7 +1096,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
@@ -1110,7 +1114,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>36</v>
       </c>
@@ -1129,7 +1133,7 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
@@ -1147,7 +1151,7 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
@@ -1164,7 +1168,7 @@
       <c r="O22" s="9"/>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>26</v>
       </c>
@@ -1180,7 +1184,7 @@
       <c r="E23" s="2"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>40</v>
       </c>
@@ -1195,9 +1199,9 @@
       </c>
       <c r="E24" s="2"/>
       <c r="R24" s="9"/>
-      <c r="S24" s="6"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="S24" s="5"/>
+    </row>
+    <row r="25" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>27</v>
       </c>
@@ -1212,9 +1216,9 @@
       </c>
       <c r="E25" s="2"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1229,7 +1233,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
+      <c r="T26" s="11"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
@@ -1345,10 +1349,10 @@
         <v>47</v>
       </c>
       <c r="B34" s="1">
-        <v>43146</v>
+        <v>43205</v>
       </c>
       <c r="C34" s="10">
-        <v>47150</v>
+        <v>47239</v>
       </c>
       <c r="D34" t="s">
         <v>49</v>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cole\Documents\Fall 2018\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DD101C-431B-4841-809E-52BC99A08AE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,7 +185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,12 +573,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,31 +587,30 @@
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="17" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="11" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="10.42578125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="25" max="27" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="29" max="31" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="34" max="35" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="21" max="22" width="11" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" customWidth="1"/>
+    <col min="25" max="27" width="9.85546875" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" customWidth="1"/>
+    <col min="29" max="31" width="9.85546875" customWidth="1"/>
+    <col min="32" max="32" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="38" max="40" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -907,13 +905,13 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="6"/>
+      <c r="T7" s="5"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
@@ -1061,7 +1059,7 @@
       <c r="E16" s="2"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -1078,7 +1076,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
@@ -1096,7 +1094,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
@@ -1114,7 +1112,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>36</v>
       </c>
@@ -1133,7 +1131,7 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
@@ -1151,7 +1149,7 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
@@ -1168,7 +1166,7 @@
       <c r="O22" s="9"/>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>26</v>
       </c>
@@ -1184,7 +1182,7 @@
       <c r="E23" s="2"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>40</v>
       </c>
@@ -1201,7 +1199,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="5"/>
     </row>
-    <row r="25" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>27</v>
       </c>
@@ -1218,7 +1216,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="5"/>
     </row>
-    <row r="26" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1235,7 +1233,7 @@
       <c r="S26" s="6"/>
       <c r="T26" s="11"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>42</v>
       </c>
@@ -1248,9 +1246,9 @@
       <c r="D27" t="s">
         <v>39</v>
       </c>
-      <c r="X27" s="6"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z27" s="4"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>43</v>
       </c>
@@ -1263,10 +1261,10 @@
       <c r="D28" t="s">
         <v>49</v>
       </c>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>44</v>
       </c>
@@ -1279,11 +1277,11 @@
       <c r="D29" t="s">
         <v>51</v>
       </c>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>45</v>
       </c>
@@ -1296,9 +1294,9 @@
       <c r="D30" t="s">
         <v>39</v>
       </c>
-      <c r="AA30" s="6"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC30" s="6"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>48</v>
       </c>
@@ -1311,9 +1309,9 @@
       <c r="D31" t="s">
         <v>39</v>
       </c>
-      <c r="AB31" s="6"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD31" s="6"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>46</v>
       </c>
@@ -1326,8 +1324,8 @@
       <c r="D32" t="s">
         <v>49</v>
       </c>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cole\Documents\Fall 2018\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881EBD61-FD24-446E-A1C4-F51E33CEE9AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="73">
   <si>
     <t>Task</t>
   </si>
@@ -158,12 +159,6 @@
     <t>Machine Parts</t>
   </si>
   <si>
-    <t>Write Vehicle Code</t>
-  </si>
-  <si>
-    <t>Weld Subassemblies</t>
-  </si>
-  <si>
     <t>Test Robot</t>
   </si>
   <si>
@@ -180,13 +175,82 @@
   </si>
   <si>
     <t>21 days</t>
+  </si>
+  <si>
+    <t>Write Vehicle Code(Ivan)</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>3 weeks, needed cnc feature</t>
+  </si>
+  <si>
+    <t>in progress(cnc feature)</t>
+  </si>
+  <si>
+    <t>week of 3/4</t>
+  </si>
+  <si>
+    <t>FR2 (x2) (Ivan)</t>
+  </si>
+  <si>
+    <t>FR3 (Ivan)</t>
+  </si>
+  <si>
+    <t>FR4 (Ivan/Cole)</t>
+  </si>
+  <si>
+    <t>FR1 (Cole)</t>
+  </si>
+  <si>
+    <t>FR5 (Cole)</t>
+  </si>
+  <si>
+    <t>RB1 (x3) (Cole)</t>
+  </si>
+  <si>
+    <t>RH1 (Ivan)</t>
+  </si>
+  <si>
+    <t>MM1 (Ivan)</t>
+  </si>
+  <si>
+    <t>RB2 (Cole)</t>
+  </si>
+  <si>
+    <t>RA1 (x2) (Cole)</t>
+  </si>
+  <si>
+    <t>AR1 (x2) (Nishagar)</t>
+  </si>
+  <si>
+    <t>AF1 (x2) (Nishagar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 day</t>
+  </si>
+  <si>
+    <t>GB1 (x2)</t>
+  </si>
+  <si>
+    <t>AP1 (x2) (Cole/Ivan)</t>
+  </si>
+  <si>
+    <t>Roller Sub Assembly (weld) (Cole)</t>
+  </si>
+  <si>
+    <t>Fram Sub Assembly (weld) (Cole)</t>
+  </si>
+  <si>
+    <t>Create Test Plan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,8 +272,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +312,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -247,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -260,6 +344,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,12 +660,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BG50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD39" sqref="AD39"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL56" sqref="AL56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,63 +847,25 @@
       <c r="AN2" s="2">
         <v>43585</v>
       </c>
-      <c r="AO2" s="2">
-        <v>43592</v>
-      </c>
-      <c r="AP2" s="2">
-        <v>43599</v>
-      </c>
-      <c r="AQ2" s="2">
-        <v>43606</v>
-      </c>
-      <c r="AR2" s="2">
-        <v>43613</v>
-      </c>
-      <c r="AS2" s="2">
-        <v>43620</v>
-      </c>
-      <c r="AT2" s="2">
-        <v>43627</v>
-      </c>
-      <c r="AU2" s="2">
-        <v>43634</v>
-      </c>
-      <c r="AV2" s="2">
-        <v>43641</v>
-      </c>
-      <c r="AW2" s="2">
-        <v>43648</v>
-      </c>
-      <c r="AX2" s="2">
-        <v>43655</v>
-      </c>
-      <c r="AY2" s="2">
-        <v>43662</v>
-      </c>
-      <c r="AZ2" s="2">
-        <v>43669</v>
-      </c>
-      <c r="BA2" s="2">
-        <v>43676</v>
-      </c>
-      <c r="BB2" s="2">
-        <v>43683</v>
-      </c>
-      <c r="BC2" s="2">
-        <v>43690</v>
-      </c>
-      <c r="BD2" s="2">
-        <v>43697</v>
-      </c>
-      <c r="BE2" s="2">
-        <v>43704</v>
-      </c>
-      <c r="BF2" s="2">
-        <v>43711</v>
-      </c>
-      <c r="BG2" s="2">
-        <v>43718</v>
-      </c>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -912,11 +961,11 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
@@ -926,7 +975,7 @@
       <c r="AL7" s="6"/>
       <c r="AM7" s="6"/>
       <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
+      <c r="AO7" s="9"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -1059,7 +1108,7 @@
       <c r="E16" s="2"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -1076,7 +1125,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
@@ -1094,7 +1143,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
@@ -1112,7 +1161,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>36</v>
       </c>
@@ -1131,7 +1180,7 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
@@ -1149,7 +1198,7 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
@@ -1166,7 +1215,7 @@
       <c r="O22" s="9"/>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>26</v>
       </c>
@@ -1182,7 +1231,7 @@
       <c r="E23" s="2"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>40</v>
       </c>
@@ -1199,7 +1248,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="5"/>
     </row>
-    <row r="25" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>27</v>
       </c>
@@ -1216,7 +1265,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="5"/>
     </row>
-    <row r="26" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1233,7 +1282,7 @@
       <c r="S26" s="6"/>
       <c r="T26" s="11"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>42</v>
       </c>
@@ -1241,14 +1290,19 @@
         <v>43107</v>
       </c>
       <c r="C27" s="1">
-        <v>43114</v>
+        <v>43121</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z27" s="4"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>43</v>
       </c>
@@ -1259,104 +1313,355 @@
         <v>43128</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1">
-        <v>43135</v>
+        <v>43503</v>
       </c>
       <c r="C29" s="1">
-        <v>43156</v>
+        <v>43505</v>
       </c>
       <c r="D29" t="s">
         <v>51</v>
       </c>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="12"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43508</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43509</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43509</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AD31" s="5"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43510</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43528</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43515</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43518</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AD33" s="5"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43539</v>
+      </c>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43528</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1">
+        <v>43535</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AG37" s="13"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43537</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43537</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+      <c r="AG38" s="13"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43537</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43537</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
+      <c r="AG39" s="13"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="1">
+        <v>43535</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AG40" s="6"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43525</v>
+      </c>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
+      <c r="AE41" s="5"/>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="1">
+        <v>43543</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+      <c r="AH43" s="13"/>
+      <c r="AI43" s="6"/>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43543</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AH44" s="13"/>
+      <c r="AI44" s="6"/>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="1">
+        <v>43543</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43515</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43156</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>43550</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43142</v>
+      </c>
+      <c r="D47" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD47" s="14"/>
+      <c r="AI47" s="13"/>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1">
+        <v>43142</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43156</v>
+      </c>
+      <c r="D48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE48" s="14"/>
+      <c r="AF48" s="14"/>
+      <c r="AJ48" s="13"/>
+      <c r="AK48" s="6"/>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>43557</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43219</v>
+      </c>
+      <c r="D49" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="6"/>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="1">
-        <v>43128</v>
-      </c>
-      <c r="C30" s="1">
-        <v>43135</v>
-      </c>
-      <c r="D30" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC30" s="6"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="1">
-        <v>43135</v>
-      </c>
-      <c r="C31" s="1">
-        <v>43142</v>
-      </c>
-      <c r="D31" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD31" s="6"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="1">
-        <v>43142</v>
-      </c>
-      <c r="C32" s="1">
-        <v>43156</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="1">
-        <v>43212</v>
-      </c>
-      <c r="C33" s="1">
-        <v>43219</v>
-      </c>
-      <c r="D33" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM33" s="6"/>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="B50" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C50" s="10">
+        <v>47239</v>
+      </c>
+      <c r="D50" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="1">
-        <v>43205</v>
-      </c>
-      <c r="C34" s="10">
-        <v>47239</v>
-      </c>
-      <c r="D34" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL34" s="6"/>
-      <c r="AM34" s="6"/>
+      <c r="AL50" s="6"/>
+      <c r="AM50" s="6"/>
+      <c r="AN50" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cole\Documents\Fall 2018\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2018 Fall\Capstone\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881EBD61-FD24-446E-A1C4-F51E33CEE9AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB0EBB2-06D8-423B-9191-88E05887BDE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="73">
   <si>
     <t>Task</t>
   </si>
@@ -274,14 +274,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -344,9 +344,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,9 +663,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL56" sqref="AL56"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AQ6" sqref="AQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,15 +966,15 @@
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
@@ -1315,16 +1315,16 @@
       <c r="D28" t="s">
         <v>47</v>
       </c>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
@@ -1358,8 +1358,8 @@
       </c>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
@@ -1393,8 +1393,8 @@
       </c>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -1425,8 +1425,8 @@
       </c>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
@@ -1438,8 +1438,8 @@
       <c r="C35" s="1"/>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
@@ -1451,8 +1451,8 @@
       <c r="C36" s="1"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
@@ -1464,7 +1464,7 @@
       <c r="C37" s="1"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
-      <c r="AG37" s="13"/>
+      <c r="AG37" s="14"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
-      <c r="AG38" s="13"/>
+      <c r="AG38" s="14"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
-      <c r="AG39" s="13"/>
+      <c r="AG39" s="14"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
@@ -1510,7 +1510,7 @@
       <c r="C40" s="1"/>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
-      <c r="AG40" s="6"/>
+      <c r="AG40" s="14"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
@@ -1536,9 +1536,9 @@
       <c r="C42" s="1"/>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="4"/>
+      <c r="AG42" s="14"/>
+      <c r="AH42" s="14"/>
+      <c r="AI42" s="14"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
@@ -1550,8 +1550,8 @@
       <c r="C43" s="1"/>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
-      <c r="AH43" s="13"/>
-      <c r="AI43" s="6"/>
+      <c r="AH43" s="14"/>
+      <c r="AI43" s="14"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
@@ -1563,8 +1563,8 @@
       <c r="C44" s="1"/>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
-      <c r="AH44" s="13"/>
-      <c r="AI44" s="6"/>
+      <c r="AH44" s="14"/>
+      <c r="AI44" s="14"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
@@ -1576,8 +1576,8 @@
       <c r="C45" s="1"/>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
-      <c r="AH45" s="6"/>
-      <c r="AI45" s="6"/>
+      <c r="AH45" s="14"/>
+      <c r="AI45" s="14"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
@@ -1592,9 +1592,9 @@
       <c r="D46" t="s">
         <v>49</v>
       </c>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="4"/>
-      <c r="AF46" s="4"/>
+      <c r="AD46" s="14"/>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="14"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
@@ -1609,8 +1609,8 @@
       <c r="D47" t="s">
         <v>39</v>
       </c>
-      <c r="AD47" s="14"/>
-      <c r="AI47" s="13"/>
+      <c r="AD47" s="13"/>
+      <c r="AI47" s="14"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
@@ -1625,10 +1625,10 @@
       <c r="D48" t="s">
         <v>47</v>
       </c>
-      <c r="AE48" s="14"/>
-      <c r="AF48" s="14"/>
-      <c r="AJ48" s="13"/>
-      <c r="AK48" s="6"/>
+      <c r="AE48" s="13"/>
+      <c r="AF48" s="13"/>
+      <c r="AJ48" s="14"/>
+      <c r="AK48" s="14"/>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
@@ -1643,8 +1643,8 @@
       <c r="D49" t="s">
         <v>39</v>
       </c>
-      <c r="AL49" s="6"/>
-      <c r="AM49" s="6"/>
+      <c r="AL49" s="14"/>
+      <c r="AM49" s="14"/>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
@@ -1659,9 +1659,9 @@
       <c r="D50" t="s">
         <v>47</v>
       </c>
-      <c r="AL50" s="6"/>
-      <c r="AM50" s="6"/>
-      <c r="AN50" s="6"/>
+      <c r="AL50" s="9"/>
+      <c r="AM50" s="4"/>
+      <c r="AN50" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
